--- a/Screen transition.xlsx
+++ b/Screen transition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9522B943-EE14-4BD9-ACFD-D0308DA2A4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC119181-518D-4640-B6D7-A9FEE40760E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -279,6 +279,17 @@
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント一覧</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>トップページ</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -620,6 +631,22 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -664,25 +691,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -9575,20 +9586,20 @@
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="49"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
@@ -9607,26 +9618,26 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="20"/>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="55" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="57"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="63"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
@@ -9645,22 +9656,22 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="20"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="60"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="66"/>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -9875,18 +9886,18 @@
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
-      <c r="L17" s="50" t="s">
+      <c r="L17" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
       <c r="AA17" s="21"/>
@@ -9908,16 +9919,16 @@
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
       <c r="AA18" s="21"/>
@@ -9939,16 +9950,16 @@
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
       <c r="X19" s="21"/>
@@ -10180,12 +10191,12 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="52">
+      <c r="F26" s="58">
         <v>44526</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
       <c r="J26" s="8" t="s">
         <v>8</v>
       </c>
@@ -10815,8 +10826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FR44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -10830,38 +10841,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:174" ht="12.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="69"/>
     </row>
     <row r="2" spans="1:174" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -10871,36 +10882,36 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="64" t="s">
-        <v>17</v>
+      <c r="F2" s="70" t="s">
+        <v>30</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="65"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="71"/>
       <c r="Z2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="64" t="s">
+      <c r="AB2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="66"/>
+      <c r="AC2" s="72"/>
       <c r="AD2" s="39"/>
     </row>
     <row r="3" spans="1:174" ht="12.75" customHeight="1">
@@ -10931,10 +10942,10 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="66"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="72"/>
       <c r="AD3" s="39"/>
     </row>
     <row r="4" spans="1:174" s="7" customFormat="1" ht="12.75" customHeight="1">
@@ -12288,38 +12299,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:174" ht="12.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="69"/>
     </row>
     <row r="2" spans="1:174" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -12329,36 +12340,36 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="65"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="71"/>
       <c r="Z2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="64" t="s">
+      <c r="AB2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="66"/>
+      <c r="AC2" s="72"/>
       <c r="AD2" s="39"/>
     </row>
     <row r="3" spans="1:174" ht="12.75" customHeight="1">
@@ -12389,10 +12400,10 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="66"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="72"/>
       <c r="AD3" s="39"/>
     </row>
     <row r="4" spans="1:174" s="7" customFormat="1" ht="12.75" customHeight="1">
@@ -13997,7 +14008,7 @@
   <dimension ref="A1:GE43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X35" sqref="X35"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -14011,51 +14022,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:187" ht="12.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
     </row>
     <row r="2" spans="1:187" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -14065,50 +14076,50 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="64" t="s">
-        <v>17</v>
+      <c r="F2" s="70" t="s">
+        <v>29</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="65"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="71"/>
       <c r="Z2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="64" t="s">
+      <c r="AB2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
     </row>
     <row r="3" spans="1:187" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -14138,24 +14149,24 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
     </row>
     <row r="4" spans="1:187" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="31"/>
@@ -16033,38 +16044,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:174" ht="12.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="69"/>
     </row>
     <row r="2" spans="1:174" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -16074,36 +16085,36 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="65"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="71"/>
       <c r="Z2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="64" t="s">
+      <c r="AB2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="66"/>
+      <c r="AC2" s="72"/>
       <c r="AD2" s="39"/>
     </row>
     <row r="3" spans="1:174" ht="12.75" customHeight="1">
@@ -16134,10 +16145,10 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="66"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="72"/>
       <c r="AD3" s="39"/>
     </row>
     <row r="4" spans="1:174" s="7" customFormat="1" ht="12.75" customHeight="1">
@@ -16494,7 +16505,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="45" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="21"/>
@@ -16524,7 +16535,7 @@
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="46" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="21"/>
@@ -17529,8 +17540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01B6F20-B9F1-44CC-A4F2-C0CDF8E16F03}">
   <dimension ref="A1:FR44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA42" sqref="AA42"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -17544,38 +17555,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:174" ht="12.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="69"/>
     </row>
     <row r="2" spans="1:174" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -17585,36 +17596,36 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="65"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="71"/>
       <c r="Z2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="64" t="s">
+      <c r="AB2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="66"/>
+      <c r="AC2" s="72"/>
       <c r="AD2" s="39"/>
     </row>
     <row r="3" spans="1:174" ht="12.75" customHeight="1">
@@ -17645,10 +17656,10 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="65"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="71"/>
       <c r="AD3" s="39"/>
     </row>
     <row r="4" spans="1:174" s="7" customFormat="1" ht="12.75" customHeight="1">
@@ -18005,7 +18016,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="45" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="21"/>
@@ -18035,7 +18046,7 @@
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="46" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="21"/>

--- a/Screen transition.xlsx
+++ b/Screen transition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC119181-518D-4640-B6D7-A9FEE40760E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD9EE3C-E94C-47FC-80EC-975C7A8F46FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -2873,7 +2873,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>とうｔ登録する画面遷移図</a:t>
+            <a:t>画面遷移図</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
@@ -10826,7 +10826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FR44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
@@ -12285,7 +12285,7 @@
   <dimension ref="A1:FR51"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+      <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -17540,7 +17540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01B6F20-B9F1-44CC-A4F2-C0CDF8E16F03}">
   <dimension ref="A1:FR44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>

--- a/Screen transition.xlsx
+++ b/Screen transition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD9EE3C-E94C-47FC-80EC-975C7A8F46FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5228518A-03A8-4A33-B683-3C1A3757B056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,22 +16,22 @@
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
     <sheet name="画面遷移図_トップページ" sheetId="1" r:id="rId2"/>
     <sheet name="画面遷移図_アカウント登録" sheetId="6" r:id="rId3"/>
-    <sheet name="画面遷移図アカウント一覧" sheetId="5" r:id="rId4"/>
-    <sheet name="画面遷移図アカウント更新" sheetId="7" r:id="rId5"/>
-    <sheet name="画面遷移図アカウント削除" sheetId="4" r:id="rId6"/>
+    <sheet name="画面遷移図_アカウント一覧" sheetId="5" r:id="rId4"/>
+    <sheet name="画面遷移図_アカウント更新" sheetId="7" r:id="rId5"/>
+    <sheet name="画面遷移図_アカウント削除" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">画面遷移図_アカウント一覧!$A$1:$AL$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">画面遷移図_アカウント更新!$A$1:$AD$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">画面遷移図_アカウント削除!$A$1:$AD$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">画面遷移図_アカウント登録!$A$1:$AD$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">画面遷移図_トップページ!$A$1:$AD$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">画面遷移図アカウント一覧!$A$1:$AL$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">画面遷移図アカウント更新!$A$1:$AD$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">画面遷移図アカウント削除!$A$1:$AD$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$43</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">画面遷移図_アカウント一覧!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">画面遷移図_アカウント更新!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">画面遷移図_アカウント削除!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">画面遷移図_アカウント登録!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">画面遷移図_トップページ!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">画面遷移図アカウント一覧!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">画面遷移図アカウント更新!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">画面遷移図アカウント削除!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙 '!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="181029" calcMode="manual"/>
@@ -748,7 +748,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="7429500" y="161925"/>
-          <a:ext cx="1559560" cy="170180"/>
+          <a:ext cx="1597660" cy="170180"/>
           <a:chOff x="733" y="95"/>
           <a:chExt cx="180" cy="17"/>
         </a:xfrm>
@@ -4172,7 +4172,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4181,7 +4181,7 @@
             </a:rPr>
             <a:t>アカウント</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -4192,7 +4192,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4201,7 +4201,7 @@
             </a:rPr>
             <a:t>登録リンク</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -9189,7 +9189,7 @@
   <dimension ref="A1:FT43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1"/>
@@ -9197,7 +9197,8 @@
     <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
     <col min="5" max="6" width="4.109375" style="12" customWidth="1"/>
     <col min="7" max="29" width="4.109375" style="1" customWidth="1"/>
-    <col min="30" max="32" width="4.109375" style="13" customWidth="1"/>
+    <col min="30" max="30" width="4.6640625" style="13" customWidth="1"/>
+    <col min="31" max="32" width="4.109375" style="13" customWidth="1"/>
     <col min="33" max="36" width="4" style="1" customWidth="1"/>
     <col min="37" max="16384" width="9" style="1"/>
   </cols>
@@ -10177,7 +10178,7 @@
       <c r="AC25" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AD25" s="10" t="s">
+      <c r="AD25" s="25" t="s">
         <v>7</v>
       </c>
       <c r="AE25" s="21"/>
@@ -10219,7 +10220,7 @@
       <c r="AA26" s="9"/>
       <c r="AB26" s="10"/>
       <c r="AC26" s="25"/>
-      <c r="AD26" s="10" t="s">
+      <c r="AD26" s="25" t="s">
         <v>16</v>
       </c>
       <c r="AE26" s="21"/>
@@ -10255,7 +10256,7 @@
       <c r="AA27" s="9"/>
       <c r="AB27" s="10"/>
       <c r="AC27" s="25"/>
-      <c r="AD27" s="10"/>
+      <c r="AD27" s="25"/>
       <c r="AE27" s="21"/>
       <c r="AF27" s="23"/>
     </row>
@@ -14008,7 +14009,7 @@
   <dimension ref="A1:GE43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>

--- a/Screen transition.xlsx
+++ b/Screen transition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5228518A-03A8-4A33-B683-3C1A3757B056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1A7545-AC80-4E36-94B6-75C3F6557921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -887,15 +887,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>17145</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>283845</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>59940</xdr:rowOff>
+      <xdr:rowOff>56130</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -910,8 +910,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="588645" y="819150"/>
-          <a:ext cx="1123950" cy="545715"/>
+          <a:off x="596265" y="695325"/>
+          <a:ext cx="1120140" cy="665730"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1077,7 +1077,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
+      <xdr:colOff>13335</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>56130</xdr:rowOff>
     </xdr:from>
@@ -1104,8 +1104,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1154430" y="1361055"/>
-          <a:ext cx="2381" cy="444885"/>
+          <a:off x="1156335" y="1361055"/>
+          <a:ext cx="476" cy="444885"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1535,15 +1535,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>13811</xdr:colOff>
+      <xdr:colOff>13810</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>273844</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>18573</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1562,8 +1562,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1986915" y="1579720"/>
-          <a:ext cx="600075" cy="2260283"/>
+          <a:off x="2039302" y="1527333"/>
+          <a:ext cx="525780" cy="2290763"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1594,15 +1594,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>12383</xdr:colOff>
+      <xdr:colOff>82868</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>88073</xdr:rowOff>
+      <xdr:rowOff>91883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>20955</xdr:colOff>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>120968</xdr:rowOff>
+      <xdr:rowOff>122873</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1617,8 +1617,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1726883" y="1069148"/>
-          <a:ext cx="8572" cy="1004445"/>
+          <a:off x="1797368" y="1072958"/>
+          <a:ext cx="952" cy="1002540"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1711,15 +1711,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>63817</xdr:colOff>
+      <xdr:colOff>88582</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>40005</xdr:rowOff>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1734,8 +1734,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2349817" y="3007995"/>
-          <a:ext cx="2136458" cy="1089660"/>
+          <a:off x="2374582" y="2933700"/>
+          <a:ext cx="2142173" cy="1087755"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -10827,8 +10827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FR44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -17541,7 +17541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01B6F20-B9F1-44CC-A4F2-C0CDF8E16F03}">
   <dimension ref="A1:FR44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
